--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gdf1-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gdf1-Bmpr2.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.86405866666667</v>
+        <v>36.89194233333333</v>
       </c>
       <c r="N2">
-        <v>86.59217600000001</v>
+        <v>110.675827</v>
       </c>
       <c r="O2">
-        <v>0.3025739760541936</v>
+        <v>0.3567095043190808</v>
       </c>
       <c r="P2">
-        <v>0.3025739760541935</v>
+        <v>0.3567095043190809</v>
       </c>
       <c r="Q2">
-        <v>1.969818062353778</v>
+        <v>2.517678307224222</v>
       </c>
       <c r="R2">
-        <v>17.728362561184</v>
+        <v>22.659104765018</v>
       </c>
       <c r="S2">
-        <v>0.3005539780383255</v>
+        <v>0.3543280949845359</v>
       </c>
       <c r="T2">
-        <v>0.3005539780383255</v>
+        <v>0.354328094984536</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>42.680374</v>
+        <v>42.68037399999999</v>
       </c>
       <c r="N3">
         <v>128.041122</v>
       </c>
       <c r="O3">
-        <v>0.4474066038250393</v>
+        <v>0.4126780562577495</v>
       </c>
       <c r="P3">
-        <v>0.4474066038250392</v>
+        <v>0.4126780562577496</v>
       </c>
       <c r="Q3">
-        <v>2.912707896838667</v>
+        <v>2.912707896838666</v>
       </c>
       <c r="R3">
-        <v>26.214371071548</v>
+        <v>26.21437107154799</v>
       </c>
       <c r="S3">
-        <v>0.4444196964121858</v>
+        <v>0.409922998252749</v>
       </c>
       <c r="T3">
-        <v>0.4444196964121856</v>
+        <v>0.409922998252749</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.85061433333333</v>
+        <v>23.85061433333334</v>
       </c>
       <c r="N4">
-        <v>71.55184299999999</v>
+        <v>71.55184300000001</v>
       </c>
       <c r="O4">
-        <v>0.2500194201207672</v>
+        <v>0.2306124394231696</v>
       </c>
       <c r="P4">
-        <v>0.2500194201207671</v>
+        <v>0.2306124394231696</v>
       </c>
       <c r="Q4">
-        <v>1.627677224973555</v>
+        <v>1.627677224973556</v>
       </c>
       <c r="R4">
         <v>14.649095024762</v>
       </c>
       <c r="S4">
-        <v>0.2483502787783472</v>
+        <v>0.2290728599915735</v>
       </c>
       <c r="T4">
-        <v>0.2483502787783472</v>
+        <v>0.2290728599915735</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,7 +729,7 @@
         <v>0.006676046771141624</v>
       </c>
       <c r="J5">
-        <v>0.006676046771141625</v>
+        <v>0.006676046771141624</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.86405866666667</v>
+        <v>36.89194233333333</v>
       </c>
       <c r="N5">
-        <v>86.59217600000001</v>
+        <v>110.675827</v>
       </c>
       <c r="O5">
-        <v>0.3025739760541936</v>
+        <v>0.3567095043190808</v>
       </c>
       <c r="P5">
-        <v>0.3025739760541935</v>
+        <v>0.3567095043190809</v>
       </c>
       <c r="Q5">
-        <v>0.01323898157511111</v>
+        <v>0.01692110421688889</v>
       </c>
       <c r="R5">
-        <v>0.119150834176</v>
+        <v>0.152289937952</v>
       </c>
       <c r="S5">
-        <v>0.002019998015868082</v>
+        <v>0.002381409334544929</v>
       </c>
       <c r="T5">
-        <v>0.002019998015868082</v>
+        <v>0.002381409334544929</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,7 +791,7 @@
         <v>0.006676046771141624</v>
       </c>
       <c r="J6">
-        <v>0.006676046771141625</v>
+        <v>0.006676046771141624</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>42.680374</v>
+        <v>42.68037399999999</v>
       </c>
       <c r="N6">
         <v>128.041122</v>
       </c>
       <c r="O6">
-        <v>0.4474066038250393</v>
+        <v>0.4126780562577495</v>
       </c>
       <c r="P6">
-        <v>0.4474066038250392</v>
+        <v>0.4126780562577496</v>
       </c>
       <c r="Q6">
-        <v>0.01957606487466667</v>
+        <v>0.01957606487466666</v>
       </c>
       <c r="R6">
         <v>0.176184583872</v>
       </c>
       <c r="S6">
-        <v>0.002986907412853594</v>
+        <v>0.00275505800500055</v>
       </c>
       <c r="T6">
-        <v>0.002986907412853593</v>
+        <v>0.002755058005000551</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,7 +853,7 @@
         <v>0.006676046771141624</v>
       </c>
       <c r="J7">
-        <v>0.006676046771141625</v>
+        <v>0.006676046771141624</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.85061433333333</v>
+        <v>23.85061433333334</v>
       </c>
       <c r="N7">
-        <v>71.55184299999999</v>
+        <v>71.55184300000001</v>
       </c>
       <c r="O7">
-        <v>0.2500194201207672</v>
+        <v>0.2306124394231696</v>
       </c>
       <c r="P7">
-        <v>0.2500194201207671</v>
+        <v>0.2306124394231696</v>
       </c>
       <c r="Q7">
         <v>0.01093948177422222</v>
       </c>
       <c r="R7">
-        <v>0.09845533596799999</v>
+        <v>0.098455335968</v>
       </c>
       <c r="S7">
-        <v>0.001669141342419949</v>
+        <v>0.001539579431596145</v>
       </c>
       <c r="T7">
-        <v>0.001669141342419949</v>
+        <v>0.001539579431596145</v>
       </c>
     </row>
   </sheetData>
